--- a/xlsx-templates/zhuanzheng.xlsx
+++ b/xlsx-templates/zhuanzheng.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45900" yWindow="460" windowWidth="22920" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="5880" yWindow="460" windowWidth="22920" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -403,6 +403,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,12 +441,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,19 +452,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,27 +473,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,9 +504,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,9 +513,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -518,10 +522,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -804,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,261 +818,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/xlsx-templates/zhuanzheng.xlsx
+++ b/xlsx-templates/zhuanzheng.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B9F8D8-5DC3-B047-9CE6-2AB4D712E60E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="460" windowWidth="22920" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="51200" yWindow="-5200" windowWidth="21600" windowHeight="37940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$G$18</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>总裁意见</t>
   </si>
@@ -183,28 +184,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>综合评价（选择）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-□建议转正，担任___岗位。     （手填）
-□建议继续试用      
-□建议终止试用
-                             签字:         年   月   日</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力行政中心
-（选择）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>人力行政中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>签字：                年      月      日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -394,11 +390,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,102 +443,107 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,6 +554,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -798,48 +824,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -855,13 +882,13 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="46" customHeight="1">
+      <c r="A4" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -870,228 +897,236 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="46" customHeight="1">
+      <c r="A5" s="42"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" ht="46" customHeight="1">
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="46" customHeight="1">
+      <c r="A7" s="42"/>
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="46" customHeight="1">
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="46" customHeight="1">
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="46" customHeight="1">
+      <c r="A10" s="42"/>
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" ht="46" customHeight="1">
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="46" customHeight="1">
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="46" customHeight="1">
+      <c r="A13" s="42"/>
       <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="34" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="46" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" spans="1:7" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="90" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="31" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="85" customHeight="1">
+      <c r="A17" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="26" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+  <mergeCells count="32">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A4:A14"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="D5:E5"/>
@@ -1104,9 +1139,18 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="30" scale="32" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>